--- a/medicine/Enfance/Alice_et_les_Cerveaux_en_péril/Alice_et_les_Cerveaux_en_péril.xlsx
+++ b/medicine/Enfance/Alice_et_les_Cerveaux_en_péril/Alice_et_les_Cerveaux_en_péril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
+          <t>Alice_et_les_Cerveaux_en_péril</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Cerveaux en péril  (titre original : The Search for Cindy Austin, littéralement : À la recherche de Cindy Austin) est le quatre-vingt-huitième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs.
+Alice et les Cerveaux en péril  (titre original : The Search for Cindy Austin, littéralement : À la recherche de Cindy Austin) est le quatre-vingt-huitième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs.
 Aux États-Unis, le roman a été publié pour la première fois en 1989 par Simon &amp; Schuster, New York. En France, il a paru pour la première fois en 1993 chez Hachette dans la collection « Bibliothèque verte » sous le no 480.  
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
+          <t>Alice_et_les_Cerveaux_en_péril</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée parue en 1993 en langue française.
 Alice est invitée à dîner chez les Austin, un couple de scientifiques qui travaille pour le gouvernement. Leur petite fille, Cindy, est une surdouée. Trois gardes du corps sont affectés à la protection de la famille. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
+          <t>Alice_et_les_Cerveaux_en_péril</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
-James Roy, avocat [2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
+James Roy, avocat  de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
-Personnages spécifiques à ce roman
-Barbara et Terence Austin, couple de scientifiques.
+Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Cerveaux_en_péril</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barbara et Terence Austin, couple de scientifiques.
 Cindy Austin, fille de Barbara et Terence Austin, enfant surdouée.
 Katherine Connelly, avocate qui travaille dans le cabinet de James Roy.
 Julianne Connelly, fille de Katherine Connelly, onze ans, cousine de Cindy.
@@ -566,34 +619,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Cerveaux_en_péril</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_les_Cerveaux_en_p%C3%A9ril</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1993 : Hachette, collection Bibliothèque verte no , souple (français, version originale). Illustré par Philippe Daure.
-2000 : Hachette, collection Bibliothèque verte[3], souple (français, version originale). Illustré par Philippe Daure. Traduction de Barbara Nasaroff. 15 chapitres. 219 p. </t>
+2000 : Hachette, collection Bibliothèque verte, souple (français, version originale). Illustré par Philippe Daure. Traduction de Barbara Nasaroff. 15 chapitres. 219 p. </t>
         </is>
       </c>
     </row>
